--- a/Montana/Overlays/MTov_Overlay Schema Mapping to WaDE.xlsx
+++ b/Montana/Overlays/MTov_Overlay Schema Mapping to WaDE.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rjame\Documents\WSWC Documents\MappingStatesDataToWaDE2.0\Montana\Regulatory\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rjame\Documents\WSWC Documents\MappingStatesDataToWaDE2.0\Montana\Overlays\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21BE5507-C639-4715-8E0F-4667CE055CD4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B90C71D-1ED8-48B6-B149-DC62ED9643C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" tabRatio="645" activeTab="4" xr2:uid="{00CC2BD5-2C7C-4716-9573-3E594BB9D2D1}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="645" activeTab="2" xr2:uid="{00CC2BD5-2C7C-4716-9573-3E594BB9D2D1}"/>
   </bookViews>
   <sheets>
     <sheet name="Mapping Notes" sheetId="1" r:id="rId1"/>
@@ -175,9 +175,6 @@
   </si>
   <si>
     <t>nvarchar(250)</t>
-  </si>
-  <si>
-    <t>MTre_01</t>
   </si>
   <si>
     <t>UTwr_O1</t>
@@ -528,16 +525,19 @@
     <t>*This file created automatically with python scripts.</t>
   </si>
   <si>
-    <t>MTre_RU + OBJECTID</t>
-  </si>
-  <si>
     <t>(blank)</t>
   </si>
   <si>
-    <t>MTre_RO + OBJECTID</t>
+    <t>https://dnrc.mt.gov/Conservation/Conservation-Programs/Conservation-Districts/</t>
   </si>
   <si>
-    <t>https://dnrc.mt.gov/Conservation/Conservation-Programs/Conservation-Districts/</t>
+    <t>MTov_RU + OBJECTID</t>
+  </si>
+  <si>
+    <t>MTov_RO + OBJECTID</t>
+  </si>
+  <si>
+    <t>MTov_O1</t>
   </si>
 </sst>
 </file>
@@ -1259,9 +1259,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1299,7 +1299,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1405,7 +1405,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1547,7 +1547,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1857,9 +1857,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{203F7812-755D-4EFC-B094-8BF895453DC0}">
   <dimension ref="A1:K24"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C13" sqref="C13"/>
+      <selection pane="bottomLeft" activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1965,7 +1965,7 @@
         <v>28</v>
       </c>
       <c r="F3" s="117" t="s">
-        <v>44</v>
+        <v>164</v>
       </c>
       <c r="G3" s="24" t="s">
         <v>28</v>
@@ -1977,15 +1977,15 @@
         <v>28</v>
       </c>
       <c r="J3" s="72" t="s">
+        <v>44</v>
+      </c>
+      <c r="K3" s="70" t="s">
         <v>45</v>
-      </c>
-      <c r="K3" s="70" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B4" s="17" t="s">
         <v>43</v>
@@ -2000,7 +2000,7 @@
         <v>28</v>
       </c>
       <c r="F4" s="118" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G4" s="31" t="s">
         <v>28</v>
@@ -2012,15 +2012,15 @@
         <v>28</v>
       </c>
       <c r="J4" s="72" t="s">
+        <v>48</v>
+      </c>
+      <c r="K4" s="70" t="s">
         <v>49</v>
-      </c>
-      <c r="K4" s="70" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B5" s="17" t="s">
         <v>43</v>
@@ -2035,7 +2035,7 @@
         <v>28</v>
       </c>
       <c r="F5" s="119" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G5" s="31" t="s">
         <v>28</v>
@@ -2047,15 +2047,15 @@
         <v>28</v>
       </c>
       <c r="J5" s="72" t="s">
+        <v>52</v>
+      </c>
+      <c r="K5" s="70" t="s">
         <v>53</v>
-      </c>
-      <c r="K5" s="70" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B6" s="17" t="s">
         <v>43</v>
@@ -2070,7 +2070,7 @@
         <v>28</v>
       </c>
       <c r="F6" s="119" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G6" s="31" t="s">
         <v>28</v>
@@ -2082,15 +2082,15 @@
         <v>28</v>
       </c>
       <c r="J6" s="72" t="s">
+        <v>56</v>
+      </c>
+      <c r="K6" s="70" t="s">
         <v>57</v>
-      </c>
-      <c r="K6" s="70" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B7" s="17" t="s">
         <v>43</v>
@@ -2105,7 +2105,7 @@
         <v>28</v>
       </c>
       <c r="F7" s="119" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G7" s="31" t="s">
         <v>28</v>
@@ -2117,15 +2117,15 @@
         <v>28</v>
       </c>
       <c r="J7" s="72" t="s">
+        <v>60</v>
+      </c>
+      <c r="K7" s="70" t="s">
         <v>61</v>
-      </c>
-      <c r="K7" s="70" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B8" s="17" t="s">
         <v>43</v>
@@ -2140,7 +2140,7 @@
         <v>28</v>
       </c>
       <c r="F8" s="119" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G8" s="31" t="s">
         <v>28</v>
@@ -2152,15 +2152,15 @@
         <v>28</v>
       </c>
       <c r="J8" s="72" t="s">
+        <v>64</v>
+      </c>
+      <c r="K8" s="70" t="s">
         <v>65</v>
-      </c>
-      <c r="K8" s="70" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B9" s="17" t="s">
         <v>43</v>
@@ -2175,7 +2175,7 @@
         <v>28</v>
       </c>
       <c r="F9" s="118" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G9" s="31" t="s">
         <v>28</v>
@@ -2187,18 +2187,18 @@
         <v>28</v>
       </c>
       <c r="J9" s="72" t="s">
+        <v>68</v>
+      </c>
+      <c r="K9" s="70" t="s">
         <v>69</v>
-      </c>
-      <c r="K9" s="70" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B10" s="17" t="s">
         <v>71</v>
-      </c>
-      <c r="B10" s="17" t="s">
-        <v>72</v>
       </c>
       <c r="C10" s="18" t="s">
         <v>28</v>
@@ -2207,10 +2207,10 @@
         <v>28</v>
       </c>
       <c r="E10" s="19" t="s">
+        <v>72</v>
+      </c>
+      <c r="F10" s="119" t="s">
         <v>73</v>
-      </c>
-      <c r="F10" s="119" t="s">
-        <v>74</v>
       </c>
       <c r="G10" s="31" t="s">
         <v>28</v>
@@ -2225,7 +2225,7 @@
         <v>5</v>
       </c>
       <c r="K10" s="70" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="18" x14ac:dyDescent="0.3">
@@ -2276,7 +2276,7 @@
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F16" sqref="F16"/>
+      <selection pane="bottomLeft" activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2332,7 +2332,7 @@
     </row>
     <row r="2" spans="1:13" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="10" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B2" s="11" t="s">
         <v>27</v>
@@ -2362,15 +2362,15 @@
         <v>28</v>
       </c>
       <c r="K2" s="77" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B3" s="21" t="s">
         <v>78</v>
-      </c>
-      <c r="B3" s="21" t="s">
-        <v>79</v>
       </c>
       <c r="C3" s="22" t="s">
         <v>28</v>
@@ -2382,7 +2382,7 @@
         <v>28</v>
       </c>
       <c r="F3" s="57" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="G3" s="58"/>
       <c r="H3" s="59"/>
@@ -2390,20 +2390,20 @@
         <v>28</v>
       </c>
       <c r="J3" s="82" t="s">
+        <v>80</v>
+      </c>
+      <c r="K3" s="77" t="s">
         <v>81</v>
-      </c>
-      <c r="K3" s="77" t="s">
-        <v>82</v>
       </c>
       <c r="L3" s="10"/>
       <c r="M3" s="10"/>
     </row>
     <row r="4" spans="1:13" s="26" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="27" t="s">
+        <v>82</v>
+      </c>
+      <c r="B4" s="17" t="s">
         <v>83</v>
-      </c>
-      <c r="B4" s="17" t="s">
-        <v>84</v>
       </c>
       <c r="C4" s="18" t="s">
         <v>28</v>
@@ -2430,17 +2430,17 @@
         <v>4326</v>
       </c>
       <c r="K4" s="77" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="L4" s="10"/>
       <c r="M4" s="10"/>
     </row>
     <row r="5" spans="1:13" s="26" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="27" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B5" s="17" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C5" s="18" t="s">
         <v>28</v>
@@ -2452,7 +2452,7 @@
         <v>28</v>
       </c>
       <c r="F5" s="60" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="G5" s="46" t="s">
         <v>28</v>
@@ -2464,20 +2464,20 @@
         <v>28</v>
       </c>
       <c r="J5" s="77" t="s">
+        <v>86</v>
+      </c>
+      <c r="K5" s="77" t="s">
         <v>87</v>
-      </c>
-      <c r="K5" s="77" t="s">
-        <v>88</v>
       </c>
       <c r="L5" s="10"/>
       <c r="M5" s="10"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" s="36" t="s">
+        <v>88</v>
+      </c>
+      <c r="B6" s="11" t="s">
         <v>89</v>
-      </c>
-      <c r="B6" s="11" t="s">
-        <v>90</v>
       </c>
       <c r="C6" s="12" t="s">
         <v>28</v>
@@ -2492,29 +2492,29 @@
         <v>28</v>
       </c>
       <c r="G6" s="45" t="s">
+        <v>90</v>
+      </c>
+      <c r="H6" s="61" t="s">
         <v>91</v>
-      </c>
-      <c r="H6" s="61" t="s">
-        <v>92</v>
       </c>
       <c r="I6" s="79" t="s">
         <v>28</v>
       </c>
       <c r="J6" s="76" t="s">
+        <v>92</v>
+      </c>
+      <c r="K6" s="77" t="s">
         <v>93</v>
-      </c>
-      <c r="K6" s="77" t="s">
-        <v>94</v>
       </c>
       <c r="L6" s="10"/>
       <c r="M6" s="10"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" s="27" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B7" s="17" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C7" s="18" t="s">
         <v>28</v>
@@ -2529,10 +2529,10 @@
         <v>28</v>
       </c>
       <c r="G7" s="45" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H7" s="61" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="I7" s="79" t="s">
         <v>28</v>
@@ -2541,17 +2541,17 @@
         <v>48001</v>
       </c>
       <c r="K7" s="77" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="L7" s="10"/>
       <c r="M7" s="10"/>
     </row>
     <row r="8" spans="1:13" s="26" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="27" t="s">
+        <v>96</v>
+      </c>
+      <c r="B8" s="17" t="s">
         <v>97</v>
-      </c>
-      <c r="B8" s="17" t="s">
-        <v>98</v>
       </c>
       <c r="C8" s="18" t="s">
         <v>28</v>
@@ -2563,7 +2563,7 @@
         <v>28</v>
       </c>
       <c r="F8" s="60" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="G8" s="46" t="s">
         <v>28</v>
@@ -2576,17 +2576,17 @@
       </c>
       <c r="J8" s="80"/>
       <c r="K8" s="77" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="L8" s="10"/>
       <c r="M8" s="10"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9" s="27" t="s">
+        <v>99</v>
+      </c>
+      <c r="B9" s="17" t="s">
         <v>100</v>
-      </c>
-      <c r="B9" s="17" t="s">
-        <v>101</v>
       </c>
       <c r="C9" s="18" t="s">
         <v>28</v>
@@ -2595,7 +2595,7 @@
         <v>28</v>
       </c>
       <c r="E9" s="14" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F9" s="53" t="s">
         <v>10</v>
@@ -2610,17 +2610,17 @@
         <v>28</v>
       </c>
       <c r="J9" s="76" t="s">
+        <v>101</v>
+      </c>
+      <c r="K9" s="77" t="s">
         <v>102</v>
-      </c>
-      <c r="K9" s="77" t="s">
-        <v>103</v>
       </c>
       <c r="L9" s="10"/>
       <c r="M9" s="10"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10" s="27" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B10" s="17" t="s">
         <v>31</v>
@@ -2647,20 +2647,20 @@
         <v>28</v>
       </c>
       <c r="J10" s="83" t="s">
+        <v>104</v>
+      </c>
+      <c r="K10" s="77" t="s">
         <v>105</v>
-      </c>
-      <c r="K10" s="77" t="s">
-        <v>106</v>
       </c>
       <c r="L10" s="10"/>
       <c r="M10" s="10"/>
     </row>
     <row r="11" spans="1:13" s="26" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="27" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B11" s="17" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C11" s="18" t="s">
         <v>28</v>
@@ -2669,10 +2669,10 @@
         <v>28</v>
       </c>
       <c r="E11" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="F11" s="60" t="s">
         <v>73</v>
-      </c>
-      <c r="F11" s="60" t="s">
-        <v>74</v>
       </c>
       <c r="G11" s="46" t="s">
         <v>28</v>
@@ -2684,10 +2684,10 @@
         <v>28</v>
       </c>
       <c r="J11" s="76" t="s">
+        <v>107</v>
+      </c>
+      <c r="K11" s="77" t="s">
         <v>108</v>
-      </c>
-      <c r="K11" s="77" t="s">
-        <v>109</v>
       </c>
       <c r="L11" s="10"/>
       <c r="M11" s="10"/>
@@ -2758,9 +2758,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{840F4EBE-1122-49FE-9814-7C21AEF7536A}">
   <dimension ref="A1:K24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G21" sqref="G19:G21"/>
+      <selection pane="bottomLeft" activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2816,7 +2816,7 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="27" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B2" s="17" t="s">
         <v>27</v>
@@ -2836,15 +2836,15 @@
       <c r="I2" s="33"/>
       <c r="J2" s="109"/>
       <c r="K2" s="38" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="39" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B3" s="22" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C3" s="22" t="s">
         <v>28</v>
@@ -2864,18 +2864,18 @@
         <v>28</v>
       </c>
       <c r="J3" s="107" t="s">
+        <v>112</v>
+      </c>
+      <c r="K3" s="38" t="s">
         <v>113</v>
-      </c>
-      <c r="K3" s="38" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="24" x14ac:dyDescent="0.25">
       <c r="A4" s="27" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B4" s="18" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C4" s="18" t="s">
         <v>28</v>
@@ -2887,7 +2887,7 @@
         <v>28</v>
       </c>
       <c r="F4" s="60" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G4" s="60" t="s">
         <v>28</v>
@@ -2899,18 +2899,18 @@
         <v>28</v>
       </c>
       <c r="J4" s="107" t="s">
+        <v>115</v>
+      </c>
+      <c r="K4" s="38" t="s">
         <v>116</v>
-      </c>
-      <c r="K4" s="38" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="24" x14ac:dyDescent="0.25">
       <c r="A5" s="27" t="s">
+        <v>117</v>
+      </c>
+      <c r="B5" s="18" t="s">
         <v>118</v>
-      </c>
-      <c r="B5" s="18" t="s">
-        <v>119</v>
       </c>
       <c r="C5" s="18" t="s">
         <v>28</v>
@@ -2922,7 +2922,7 @@
         <v>28</v>
       </c>
       <c r="F5" s="122" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="G5" s="60" t="s">
         <v>28</v>
@@ -2934,18 +2934,18 @@
         <v>28</v>
       </c>
       <c r="J5" s="107" t="s">
+        <v>120</v>
+      </c>
+      <c r="K5" s="38" t="s">
         <v>121</v>
-      </c>
-      <c r="K5" s="38" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="27" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B6" s="18" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C6" s="18" t="s">
         <v>28</v>
@@ -2960,27 +2960,27 @@
         <v>28</v>
       </c>
       <c r="G6" s="45" t="s">
+        <v>90</v>
+      </c>
+      <c r="H6" s="61" t="s">
         <v>91</v>
-      </c>
-      <c r="H6" s="61" t="s">
-        <v>92</v>
       </c>
       <c r="I6" s="31" t="s">
         <v>28</v>
       </c>
       <c r="J6" s="107" t="s">
+        <v>123</v>
+      </c>
+      <c r="K6" s="38" t="s">
         <v>124</v>
-      </c>
-      <c r="K6" s="38" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="27" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B7" s="18" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C7" s="18" t="s">
         <v>28</v>
@@ -2995,27 +2995,27 @@
         <v>28</v>
       </c>
       <c r="G7" s="46" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H7" s="47" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="I7" s="31" t="s">
         <v>28</v>
       </c>
       <c r="J7" s="107" t="s">
+        <v>126</v>
+      </c>
+      <c r="K7" s="38" t="s">
         <v>127</v>
-      </c>
-      <c r="K7" s="38" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="27" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B8" s="18" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C8" s="18" t="s">
         <v>28</v>
@@ -3027,7 +3027,7 @@
         <v>28</v>
       </c>
       <c r="F8" s="45" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G8" s="46" t="s">
         <v>28</v>
@@ -3039,18 +3039,18 @@
         <v>28</v>
       </c>
       <c r="J8" s="107" t="s">
+        <v>129</v>
+      </c>
+      <c r="K8" s="38" t="s">
         <v>130</v>
-      </c>
-      <c r="K8" s="38" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="9" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="36" t="s">
+        <v>131</v>
+      </c>
+      <c r="B9" s="12" t="s">
         <v>132</v>
-      </c>
-      <c r="B9" s="12" t="s">
-        <v>133</v>
       </c>
       <c r="C9" s="12" t="s">
         <v>28</v>
@@ -3062,7 +3062,7 @@
         <v>28</v>
       </c>
       <c r="F9" s="60" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="G9" s="46" t="s">
         <v>28</v>
@@ -3075,15 +3075,15 @@
       </c>
       <c r="J9" s="107"/>
       <c r="K9" s="48" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="10" spans="1:11" s="10" customFormat="1" ht="43.2" x14ac:dyDescent="0.25">
       <c r="A10" s="36" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C10" s="12" t="s">
         <v>28</v>
@@ -3095,7 +3095,7 @@
         <v>28</v>
       </c>
       <c r="F10" s="124" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="G10" s="46" t="s">
         <v>28</v>
@@ -3107,15 +3107,15 @@
         <v>28</v>
       </c>
       <c r="J10" s="107" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="K10" s="48" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="11" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="36" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B11" s="11" t="s">
         <v>31</v>
@@ -3133,10 +3133,10 @@
         <v>28</v>
       </c>
       <c r="G11" s="45" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H11" s="61" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="I11" s="46" t="s">
         <v>28</v>
@@ -3145,12 +3145,12 @@
         <v>39842</v>
       </c>
       <c r="K11" s="48" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="12" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="36" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B12" s="11" t="s">
         <v>31</v>
@@ -3165,7 +3165,7 @@
         <v>28</v>
       </c>
       <c r="F12" s="60" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="G12" s="46" t="s">
         <v>28</v>
@@ -3178,15 +3178,15 @@
       </c>
       <c r="J12" s="107"/>
       <c r="K12" s="48" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B13" s="17" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C13" s="18" t="s">
         <v>28</v>
@@ -3195,10 +3195,10 @@
         <v>35</v>
       </c>
       <c r="E13" s="19" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F13" s="123" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G13" s="60" t="s">
         <v>28</v>
@@ -3210,18 +3210,18 @@
         <v>28</v>
       </c>
       <c r="J13" s="107" t="s">
+        <v>143</v>
+      </c>
+      <c r="K13" s="38" t="s">
         <v>144</v>
-      </c>
-      <c r="K13" s="38" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B14" s="17" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C14" s="18" t="s">
         <v>28</v>
@@ -3230,10 +3230,10 @@
         <v>35</v>
       </c>
       <c r="E14" s="19" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F14" s="45" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G14" s="60" t="s">
         <v>28</v>
@@ -3245,10 +3245,10 @@
         <v>28</v>
       </c>
       <c r="J14" s="107" t="s">
+        <v>147</v>
+      </c>
+      <c r="K14" s="38" t="s">
         <v>148</v>
-      </c>
-      <c r="K14" s="38" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
@@ -3296,7 +3296,7 @@
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G29" sqref="G29"/>
+      <selection pane="bottomLeft" activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3352,7 +3352,7 @@
     </row>
     <row r="2" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="111" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B2" s="112" t="s">
         <v>27</v>
@@ -3372,12 +3372,12 @@
       <c r="I2" s="33"/>
       <c r="J2" s="33"/>
       <c r="K2" s="48" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="27" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B3" s="18" t="s">
         <v>27</v>
@@ -3389,7 +3389,7 @@
         <v>28</v>
       </c>
       <c r="E3" s="42" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F3" s="52">
         <v>45141</v>
@@ -3403,7 +3403,7 @@
         <v>32</v>
       </c>
       <c r="K3" s="48" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
@@ -3420,10 +3420,10 @@
         <v>28</v>
       </c>
       <c r="E4" s="42" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F4" s="64" t="s">
-        <v>44</v>
+        <v>164</v>
       </c>
       <c r="G4" s="46"/>
       <c r="H4" s="47"/>
@@ -3431,15 +3431,15 @@
         <v>28</v>
       </c>
       <c r="J4" s="84" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="K4" s="48" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="24" x14ac:dyDescent="0.3">
       <c r="A5" s="27" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B5" s="18" t="s">
         <v>27</v>
@@ -3451,10 +3451,10 @@
         <v>28</v>
       </c>
       <c r="E5" s="42" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F5" s="45" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G5" s="46"/>
       <c r="H5" s="47"/>
@@ -3462,15 +3462,15 @@
         <v>28</v>
       </c>
       <c r="J5" s="84" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="K5" s="48" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="24" x14ac:dyDescent="0.3">
       <c r="A6" s="27" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B6" s="18" t="s">
         <v>27</v>
@@ -3482,10 +3482,10 @@
         <v>28</v>
       </c>
       <c r="E6" s="42" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F6" s="45" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G6" s="46"/>
       <c r="H6" s="47"/>
@@ -3493,10 +3493,10 @@
         <v>28</v>
       </c>
       <c r="J6" s="84" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="K6" s="48" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
@@ -3635,7 +3635,7 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="92" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B2" s="93" t="s">
         <v>27</v>
@@ -3652,12 +3652,12 @@
       <c r="H2" s="96"/>
       <c r="I2" s="96"/>
       <c r="J2" s="97" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="92" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B3" s="93" t="s">
         <v>27</v>
@@ -3666,7 +3666,7 @@
         <v>28</v>
       </c>
       <c r="D3" s="98" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E3" s="99"/>
       <c r="F3" s="100"/>
@@ -3678,12 +3678,12 @@
         <v>10</v>
       </c>
       <c r="J3" s="97" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="92" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B4" s="93" t="s">
         <v>27</v>
@@ -3692,7 +3692,7 @@
         <v>28</v>
       </c>
       <c r="D4" s="98" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E4" s="102"/>
       <c r="F4" s="100"/>
@@ -3704,7 +3704,7 @@
         <v>10755</v>
       </c>
       <c r="J4" s="97" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
@@ -3712,7 +3712,7 @@
     </row>
     <row r="7" spans="1:10" ht="18" x14ac:dyDescent="0.3">
       <c r="E7" s="73" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
